--- a/zx_template/ZxTemplate.xlsx
+++ b/zx_template/ZxTemplate.xlsx
@@ -92,6 +92,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円/楕円 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="762000"/>
+          <a:ext cx="990600" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,5 +468,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>